--- a/src/Erc.Households.PrintBills.Api/Templates/bill_electricity.xlsx
+++ b/src/Erc.Households.PrintBills.Api/Templates/bill_electricity.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20372"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23C8348-B3B5-4F11-9F6A-F5CC5AAA6B42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6CD61DD-4604-4F16-BAFA-40ADF13534F6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>Покази</t>
   </si>
   <si>
-    <t>Пільга</t>
-  </si>
-  <si>
     <t>{{item.CompanyStateRegistryCode}}</t>
   </si>
   <si>
@@ -358,6 +355,9 @@
   </si>
   <si>
     <t>{{item.UsageT3.GroupCalculations.FirstOrDefault().PriceValue}}</t>
+  </si>
+  <si>
+    <t>Пільга ({{item.ExemptionCoeff}})</t>
   </si>
 </sst>
 </file>
@@ -1183,185 +1183,20 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1417,182 +1252,170 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1608,6 +1431,183 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1898,7 +1898,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1908,264 +1908,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
+      <c r="H1" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
       <c r="K1" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="62" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="63"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="80"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="69"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="24" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="25" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="25" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="87"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="25" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="73"/>
+      <c r="B5" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="67"/>
       <c r="D5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
+      <c r="E5" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
       <c r="K5" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="79" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="26" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="27" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="32"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="32"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="32"/>
+    </row>
+    <row r="13" spans="1:11" ht="21.95" customHeight="1">
+      <c r="A13" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="33" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="82" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="88" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="88"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="88"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F12" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="88"/>
-    </row>
-    <row r="13" spans="1:11" ht="21.95" customHeight="1">
-      <c r="A13" s="94" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="89" t="s">
-        <v>69</v>
-      </c>
-    </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="98" t="s">
+      <c r="A14" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="101"/>
-      <c r="F14" s="100" t="s">
+      <c r="E14" s="46"/>
+      <c r="F14" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="102"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="89"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="33"/>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="30" t="s">
@@ -2177,14 +2177,14 @@
       <c r="C15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="105" t="s">
+      <c r="D15" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="105" t="s">
+      <c r="E15" s="51"/>
+      <c r="F15" s="50" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="106"/>
+      <c r="G15" s="51"/>
       <c r="H15" s="28" t="s">
         <v>15</v>
       </c>
@@ -2194,133 +2194,158 @@
       <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="89"/>
+      <c r="K15" s="33"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="101" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="103" t="s">
         <v>48</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="C16" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="D16" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" s="106"/>
+      <c r="F16" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="96"/>
+      <c r="H16" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="E16" s="43"/>
-      <c r="F16" s="32" t="s">
+      <c r="I16" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="14" t="s">
+      <c r="J16" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="J16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="89" t="s">
-        <v>47</v>
+      <c r="K16" s="33" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="39"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="44" t="s">
+      <c r="A17" s="102"/>
+      <c r="B17" s="104"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="108"/>
+      <c r="F17" s="97" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="34" t="s">
+      <c r="G17" s="98"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="J17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="89"/>
+        <v>75</v>
+      </c>
+      <c r="K17" s="33"/>
     </row>
     <row r="18" spans="1:12" ht="21" customHeight="1">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47" t="s">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="83"/>
+      <c r="H18" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G18" s="48"/>
-      <c r="H18" s="5" t="s">
+      <c r="I18" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="107" t="s">
+      <c r="J18" s="53"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="J18" s="108"/>
-      <c r="K18" s="89"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="90" t="s">
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I19" s="90"/>
+      <c r="J19" s="91"/>
+      <c r="K19" s="34" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
-      <c r="K20" s="90"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="34"/>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
-      <c r="H21" s="58"/>
-      <c r="I21" s="58"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="93"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="93"/>
+      <c r="I21" s="93"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="35"/>
     </row>
     <row r="23" spans="1:12">
       <c r="L23" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="A19:G20"/>
+    <mergeCell ref="H19:J20"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="B6:J6"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="A9:J11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="K9:K12"/>
     <mergeCell ref="K13:K15"/>
     <mergeCell ref="K19:K21"/>
@@ -2337,31 +2362,6 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="I18:J18"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="B6:J6"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="A9:J11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="A19:G20"/>
-    <mergeCell ref="H19:J20"/>
-    <mergeCell ref="A21:J21"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -2373,7 +2373,7 @@
   <dimension ref="A1:O23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2382,328 +2382,328 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="21" customHeight="1">
-      <c r="A1" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="145"/>
+      <c r="H1" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
     </row>
     <row r="2" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="121"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="145"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="80"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="147" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="149"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="133" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="135"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="87"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="159" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="161"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="73"/>
+      <c r="B5" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="67"/>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="164"/>
+      <c r="E5" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1">
+      <c r="A7" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="167"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="138"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="148"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="150"/>
+      <c r="M8" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="151"/>
+      <c r="O8" s="152"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1">
+      <c r="A9" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="140"/>
-      <c r="M8" s="141" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="141"/>
-      <c r="O8" s="142"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="130"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1">
+      <c r="A12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="152"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="155"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="155"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="133"/>
+    </row>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1">
+      <c r="A13" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="158"/>
-    </row>
-    <row r="13" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A13" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="116"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="160"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="128" t="s">
+      <c r="G14" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="128"/>
-      <c r="I14" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="163"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="7" t="s">
         <v>11</v>
       </c>
@@ -2713,7 +2713,7 @@
       <c r="E15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="127"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="7" t="s">
         <v>14</v>
       </c>
@@ -2726,232 +2726,245 @@
       <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="119"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="163"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="115" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="164"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="166"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="114"/>
+      <c r="I17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="160"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="115" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="13" t="s">
+      <c r="B18" s="116"/>
+      <c r="C18" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="122"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="14" t="s">
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="163"/>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="G19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="114"/>
+      <c r="I19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K17" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="132" t="s">
+      <c r="K19" s="161"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="163"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="110"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="I18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="119"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="169"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="17" t="s">
+      <c r="K20" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="154"/>
+      <c r="M20" s="154"/>
+      <c r="N20" s="154"/>
+      <c r="O20" s="154"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="85"/>
+      <c r="C21" s="85"/>
+      <c r="D21" s="85"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="90" t="s">
         <v>39</v>
       </c>
-      <c r="H20" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I20" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="K20" s="109" t="s">
-        <v>18</v>
-      </c>
-      <c r="L20" s="110"/>
-      <c r="M20" s="110"/>
-      <c r="N20" s="110"/>
-      <c r="O20" s="110"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
-      <c r="M21" s="110"/>
-      <c r="N21" s="110"/>
-      <c r="O21" s="110"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="91"/>
+      <c r="K21" s="154"/>
+      <c r="L21" s="154"/>
+      <c r="M21" s="154"/>
+      <c r="N21" s="154"/>
+      <c r="O21" s="154"/>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="56"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="110"/>
-      <c r="M22" s="110"/>
-      <c r="N22" s="110"/>
-      <c r="O22" s="110"/>
+      <c r="A22" s="87"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="88"/>
+      <c r="E22" s="88"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="154"/>
+      <c r="L22" s="154"/>
+      <c r="M22" s="154"/>
+      <c r="N22" s="154"/>
+      <c r="O22" s="154"/>
     </row>
     <row r="23" spans="1:15" ht="18.75" customHeight="1">
-      <c r="A23" s="111" t="s">
+      <c r="A23" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B23" s="112"/>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="112"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="110"/>
-      <c r="L23" s="110"/>
-      <c r="M23" s="110"/>
-      <c r="N23" s="110"/>
-      <c r="O23" s="110"/>
+      <c r="B23" s="156"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="156"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="157"/>
+      <c r="K23" s="154"/>
+      <c r="L23" s="154"/>
+      <c r="M23" s="154"/>
+      <c r="N23" s="154"/>
+      <c r="O23" s="154"/>
     </row>
   </sheetData>
   <mergeCells count="49">
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="K20:O23"/>
+    <mergeCell ref="A21:G22"/>
+    <mergeCell ref="H21:J22"/>
+    <mergeCell ref="A23:J23"/>
+    <mergeCell ref="K13:O16"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="A7:J7"/>
+    <mergeCell ref="K7:O7"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
     <mergeCell ref="K1:O1"/>
     <mergeCell ref="H2:J2"/>
     <mergeCell ref="K2:O2"/>
@@ -2968,29 +2981,16 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:G4"/>
     <mergeCell ref="H3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="A7:J7"/>
-    <mergeCell ref="K7:O7"/>
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="K20:O23"/>
-    <mergeCell ref="A21:G22"/>
-    <mergeCell ref="H21:J22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="K13:O16"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K17:O19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3001,334 +3001,334 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="I14" sqref="I14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:15" ht="21.95" customHeight="1">
-      <c r="A1" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62"/>
+      <c r="A1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="66"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="143" t="s">
-        <v>52</v>
-      </c>
-      <c r="L1" s="144"/>
-      <c r="M1" s="144"/>
-      <c r="N1" s="144"/>
-      <c r="O1" s="145"/>
+      <c r="H1" s="60" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="60"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="120"/>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="65"/>
+      <c r="A2" s="57"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="146" t="s">
+      <c r="H2" s="121" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="121"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="122" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="124"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="79" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="144"/>
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="145"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="80"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="146"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="147" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="134" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="148"/>
-      <c r="M2" s="148"/>
-      <c r="N2" s="148"/>
-      <c r="O2" s="149"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="92" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="92"/>
-      <c r="J3" s="93"/>
-      <c r="K3" s="133" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" s="134"/>
-      <c r="M3" s="134"/>
-      <c r="N3" s="134"/>
-      <c r="O3" s="135"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="87"/>
-      <c r="B4" s="80"/>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="92" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="92"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="159" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="160"/>
-      <c r="M4" s="160"/>
-      <c r="N4" s="160"/>
-      <c r="O4" s="161"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
+      <c r="N4" s="135"/>
+      <c r="O4" s="136"/>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1">
       <c r="A5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="73"/>
+      <c r="B5" s="66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="67"/>
       <c r="D5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="74" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="162" t="s">
-        <v>45</v>
-      </c>
-      <c r="L5" s="163"/>
-      <c r="M5" s="163"/>
-      <c r="N5" s="163"/>
-      <c r="O5" s="164"/>
+      <c r="E5" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="137" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="139"/>
     </row>
     <row r="6" spans="1:15" ht="15" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="70" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="140" t="s">
+        <v>31</v>
+      </c>
+      <c r="L6" s="141"/>
+      <c r="M6" s="141"/>
+      <c r="N6" s="141"/>
+      <c r="O6" s="142"/>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1">
+      <c r="A7" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="78"/>
-      <c r="K6" s="165" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="166"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="166"/>
-      <c r="O6" s="167"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1">
-      <c r="A7" s="79" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="69"/>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="136" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="137"/>
-      <c r="M7" s="137"/>
-      <c r="N7" s="137"/>
-      <c r="O7" s="138"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="148"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="74"/>
+      <c r="K8" s="149" t="s">
+        <v>6</v>
+      </c>
+      <c r="L8" s="150"/>
+      <c r="M8" s="151" t="s">
+        <v>39</v>
+      </c>
+      <c r="N8" s="151"/>
+      <c r="O8" s="152"/>
+    </row>
+    <row r="9" spans="1:15" ht="15" customHeight="1">
+      <c r="A9" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="80"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="81"/>
-      <c r="K8" s="139" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="140"/>
-      <c r="M8" s="141" t="s">
-        <v>40</v>
-      </c>
-      <c r="N8" s="141"/>
-      <c r="O8" s="142"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1">
-      <c r="A9" s="82" t="s">
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="76"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="125" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" s="126"/>
+      <c r="M9" s="126"/>
+      <c r="N9" s="126"/>
+      <c r="O9" s="127"/>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1">
+      <c r="A10" s="75"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="76"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="129"/>
+      <c r="M10" s="129"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
+    </row>
+    <row r="11" spans="1:15" ht="15" customHeight="1">
+      <c r="A11" s="75"/>
+      <c r="B11" s="76"/>
+      <c r="C11" s="76"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="76"/>
+      <c r="F11" s="76"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="129"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="130"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" customHeight="1">
+      <c r="A12" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="150" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" s="151"/>
-      <c r="M9" s="151"/>
-      <c r="N9" s="151"/>
-      <c r="O9" s="152"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1">
-      <c r="A10" s="82"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
-      <c r="K10" s="153"/>
-      <c r="L10" s="154"/>
-      <c r="M10" s="154"/>
-      <c r="N10" s="154"/>
-      <c r="O10" s="155"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1">
-      <c r="A11" s="82"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="83"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="153"/>
-      <c r="L11" s="154"/>
-      <c r="M11" s="154"/>
-      <c r="N11" s="154"/>
-      <c r="O11" s="155"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1">
-      <c r="A12" s="85" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="65" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" s="131"/>
+      <c r="L12" s="132"/>
+      <c r="M12" s="132"/>
+      <c r="N12" s="132"/>
+      <c r="O12" s="133"/>
+    </row>
+    <row r="13" spans="1:15" ht="21.75" customHeight="1">
+      <c r="A13" s="112" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="71" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="K12" s="156"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="158"/>
-    </row>
-    <row r="13" spans="1:15" ht="21.75" customHeight="1">
-      <c r="A13" s="171" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="172"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="97"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="3"/>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="158" t="s">
         <v>23</v>
       </c>
-      <c r="L13" s="115"/>
-      <c r="M13" s="115"/>
-      <c r="N13" s="115"/>
-      <c r="O13" s="116"/>
+      <c r="L13" s="159"/>
+      <c r="M13" s="159"/>
+      <c r="N13" s="159"/>
+      <c r="O13" s="160"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="123" t="s">
+      <c r="A14" s="167" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="168"/>
+      <c r="C14" s="169" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="170" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="124"/>
-      <c r="C14" s="125" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="125"/>
-      <c r="E14" s="125"/>
-      <c r="F14" s="126" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="128" t="s">
+      <c r="G14" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="128"/>
-      <c r="I14" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="J14" s="104"/>
-      <c r="K14" s="117"/>
-      <c r="L14" s="118"/>
-      <c r="M14" s="118"/>
-      <c r="N14" s="118"/>
-      <c r="O14" s="119"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" s="49"/>
+      <c r="K14" s="161"/>
+      <c r="L14" s="162"/>
+      <c r="M14" s="162"/>
+      <c r="N14" s="162"/>
+      <c r="O14" s="163"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="123"/>
-      <c r="B15" s="124"/>
+      <c r="A15" s="167"/>
+      <c r="B15" s="168"/>
       <c r="C15" s="22" t="s">
         <v>11</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="E15" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F15" s="127"/>
+      <c r="F15" s="171"/>
       <c r="G15" s="22" t="s">
         <v>14</v>
       </c>
@@ -3351,214 +3351,214 @@
       <c r="J15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K15" s="117"/>
-      <c r="L15" s="118"/>
-      <c r="M15" s="118"/>
-      <c r="N15" s="118"/>
-      <c r="O15" s="119"/>
+      <c r="K15" s="161"/>
+      <c r="L15" s="162"/>
+      <c r="M15" s="162"/>
+      <c r="N15" s="162"/>
+      <c r="O15" s="163"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="115" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="116"/>
+      <c r="C16" s="117" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="117" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="117" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="164"/>
+      <c r="L16" s="165"/>
+      <c r="M16" s="165"/>
+      <c r="N16" s="165"/>
+      <c r="O16" s="166"/>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="115"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="114"/>
+      <c r="I17" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="K17" s="158" t="s">
+        <v>46</v>
+      </c>
+      <c r="L17" s="159"/>
+      <c r="M17" s="159"/>
+      <c r="N17" s="159"/>
+      <c r="O17" s="160"/>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="115" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="130"/>
-      <c r="C16" s="131" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="131" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="131" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="31" t="s">
+      <c r="B18" s="116"/>
+      <c r="C18" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="117" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" s="114" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G16" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="I16" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="120"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="121"/>
-      <c r="N16" s="121"/>
-      <c r="O16" s="122"/>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="129"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="131"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="16" t="s">
+      <c r="K18" s="161"/>
+      <c r="L18" s="162"/>
+      <c r="M18" s="162"/>
+      <c r="N18" s="162"/>
+      <c r="O18" s="163"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="115"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H19" s="114"/>
+      <c r="I19" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19" s="161"/>
+      <c r="L19" s="162"/>
+      <c r="M19" s="162"/>
+      <c r="N19" s="162"/>
+      <c r="O19" s="163"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="116"/>
+      <c r="C20" s="117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="114" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="161"/>
+      <c r="L20" s="162"/>
+      <c r="M20" s="162"/>
+      <c r="N20" s="162"/>
+      <c r="O20" s="163"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="115"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="117"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="G17" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H17" s="132"/>
-      <c r="I17" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="K17" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="L17" s="115"/>
-      <c r="M17" s="115"/>
-      <c r="N17" s="115"/>
-      <c r="O17" s="116"/>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="129" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="130"/>
-      <c r="C18" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="D18" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="131" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H18" s="132" t="s">
+      <c r="H21" s="114"/>
+      <c r="I21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21" s="161"/>
+      <c r="L21" s="162"/>
+      <c r="M21" s="162"/>
+      <c r="N21" s="162"/>
+      <c r="O21" s="163"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="109" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="110"/>
+      <c r="C22" s="110"/>
+      <c r="D22" s="110"/>
+      <c r="E22" s="110"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I22" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>60</v>
-      </c>
-      <c r="I18" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K18" s="117"/>
-      <c r="L18" s="118"/>
-      <c r="M18" s="118"/>
-      <c r="N18" s="118"/>
-      <c r="O18" s="119"/>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="129"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="131"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="132"/>
-      <c r="I19" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="K19" s="117"/>
-      <c r="L19" s="118"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="118"/>
-      <c r="O19" s="119"/>
-    </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="129" t="s">
-        <v>56</v>
-      </c>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="131" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="132" t="s">
-        <v>67</v>
-      </c>
-      <c r="I20" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="117"/>
-      <c r="L20" s="118"/>
-      <c r="M20" s="118"/>
-      <c r="N20" s="118"/>
-      <c r="O20" s="119"/>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="129"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="131"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="H21" s="132"/>
-      <c r="I21" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="K21" s="117"/>
-      <c r="L21" s="118"/>
-      <c r="M21" s="118"/>
-      <c r="N21" s="118"/>
-      <c r="O21" s="119"/>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="168" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="169"/>
-      <c r="C22" s="169"/>
-      <c r="D22" s="169"/>
-      <c r="E22" s="169"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I22" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>61</v>
       </c>
       <c r="K22" s="173" t="s">
         <v>18</v>
@@ -3569,20 +3569,20 @@
       <c r="O22" s="173"/>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="55" t="s">
-        <v>40</v>
-      </c>
-      <c r="I23" s="55"/>
-      <c r="J23" s="56"/>
+      <c r="A23" s="84" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="I23" s="90"/>
+      <c r="J23" s="91"/>
       <c r="K23" s="173"/>
       <c r="L23" s="173"/>
       <c r="M23" s="173"/>
@@ -3590,16 +3590,16 @@
       <c r="O23" s="173"/>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="A24" s="87"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="88"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="91"/>
       <c r="K24" s="173"/>
       <c r="L24" s="173"/>
       <c r="M24" s="173"/>
@@ -3607,18 +3607,18 @@
       <c r="O24" s="173"/>
     </row>
     <row r="25" spans="1:15" ht="20.25" customHeight="1">
-      <c r="A25" s="111" t="s">
+      <c r="A25" s="155" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="112"/>
-      <c r="C25" s="112"/>
-      <c r="D25" s="112"/>
-      <c r="E25" s="112"/>
-      <c r="F25" s="112"/>
-      <c r="G25" s="112"/>
-      <c r="H25" s="112"/>
-      <c r="I25" s="112"/>
-      <c r="J25" s="113"/>
+      <c r="B25" s="156"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="156"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="157"/>
       <c r="K25" s="173"/>
       <c r="L25" s="173"/>
       <c r="M25" s="173"/>
@@ -3627,11 +3627,39 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A1:F2"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="K1:O1"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:O2"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="K22:O25"/>
+    <mergeCell ref="A23:G24"/>
+    <mergeCell ref="H23:J24"/>
+    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="K17:O21"/>
+    <mergeCell ref="A18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="F13:I13"/>
+    <mergeCell ref="K13:O16"/>
+    <mergeCell ref="A14:B15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="A16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A9:J11"/>
+    <mergeCell ref="K9:O12"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K4:O4"/>
@@ -3648,39 +3676,11 @@
     <mergeCell ref="A7:J7"/>
     <mergeCell ref="K7:O7"/>
     <mergeCell ref="B8:J8"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="F13:I13"/>
-    <mergeCell ref="K13:O16"/>
-    <mergeCell ref="A14:B15"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="A16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A9:J11"/>
-    <mergeCell ref="K9:O12"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K17:O21"/>
-    <mergeCell ref="A18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A22:F22"/>
-    <mergeCell ref="K22:O25"/>
-    <mergeCell ref="A23:G24"/>
-    <mergeCell ref="H23:J24"/>
-    <mergeCell ref="A25:J25"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="K1:O1"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
